--- a/2024/Peaks-dataset/shuffle-architecute/Teste09 ang/better_results.xlsx
+++ b/2024/Peaks-dataset/shuffle-architecute/Teste09 ang/better_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M54"/>
+  <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -497,11 +497,11 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>model_4_9_14</t>
+          <t>model_4_9_24</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -542,11 +542,11 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>model_4_9_6</t>
+          <t>model_4_9_12</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -587,11 +587,11 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>model_4_9_23</t>
+          <t>model_4_9_0</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -632,11 +632,11 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>model_4_9_12</t>
+          <t>model_4_9_22</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -677,11 +677,11 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>model_4_9_10</t>
+          <t>model_4_9_21</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -722,11 +722,11 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>model_4_9_9</t>
+          <t>model_4_9_20</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -767,11 +767,11 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>model_4_9_8</t>
+          <t>model_4_9_19</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -812,11 +812,11 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>model_4_9_7</t>
+          <t>model_4_9_18</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -857,11 +857,11 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>model_4_9_5</t>
+          <t>model_4_9_17</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -902,11 +902,11 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>model_4_9_4</t>
+          <t>model_4_9_16</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -947,11 +947,11 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>model_4_9_3</t>
+          <t>model_4_9_14</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -992,11 +992,11 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>model_4_9_2</t>
+          <t>model_4_9_13</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -1037,11 +1037,11 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>model_4_9_1</t>
+          <t>model_4_9_23</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -1082,11 +1082,11 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>model_4_9_11</t>
+          <t>model_4_9_15</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -1127,11 +1127,11 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>model_4_9_24</t>
+          <t>model_4_9_10</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -1172,11 +1172,11 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>model_4_9_13</t>
+          <t>model_4_9_4</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -1217,11 +1217,11 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>model_4_9_19</t>
+          <t>model_4_9_11</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -1262,11 +1262,11 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>model_4_9_15</t>
+          <t>model_4_9_9</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -1307,11 +1307,11 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>model_4_9_0</t>
+          <t>model_4_9_2</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -1352,11 +1352,11 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>model_4_9_16</t>
+          <t>model_4_9_3</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -1397,11 +1397,11 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>model_4_9_22</t>
+          <t>model_4_9_1</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -1442,11 +1442,11 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>model_4_9_21</t>
+          <t>model_4_9_5</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -1487,11 +1487,11 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>model_4_9_20</t>
+          <t>model_4_9_6</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -1532,11 +1532,11 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>model_4_9_18</t>
+          <t>model_4_9_7</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -1577,11 +1577,11 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>model_4_9_17</t>
+          <t>model_4_9_8</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -1617,1266 +1617,6 @@
       <c r="M26" t="inlineStr">
         <is>
           <t>Hidden Size=[30, 21], regularizer=0.2, learning_rate=0.1</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>model_4_6_2</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
-        <v>0.9979221093925568</v>
-      </c>
-      <c r="D27" t="n">
-        <v>0.7399026879772788</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0.9995565715634455</v>
-      </c>
-      <c r="F27" t="n">
-        <v>0.9942866485641098</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0.9990162593761358</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0.008720461279153824</v>
-      </c>
-      <c r="I27" t="n">
-        <v>1.739271879196167</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0.002799859503284097</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0.007733320351690054</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0.005266579799354076</v>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>Hidden Size=[30, 21], regularizer=0.2, learning_rate=0.1</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>model_4_6_1</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
-        <v>0.9976461251821623</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0.7390538056236668</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0.999781586621777</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0.9954618039211311</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0.9992975081312734</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0.009878708980977535</v>
-      </c>
-      <c r="I28" t="n">
-        <v>1.744948506355286</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0.001379087683744729</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0.006142686121165752</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0.003760879393666983</v>
-      </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>Hidden Size=[30, 21], regularizer=0.2, learning_rate=0.1</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>model_4_6_0</t>
-        </is>
-      </c>
-      <c r="C29" t="n">
-        <v>0.9972565687911823</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0.7380618132600474</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0.9999381914211415</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0.9965160255869134</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0.9995231265717197</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0.01151359360665083</v>
-      </c>
-      <c r="I29" t="n">
-        <v>1.751581907272339</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0.0003902666212525219</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0.004715742077678442</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0.002553002210333943</v>
-      </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>Hidden Size=[30, 21], regularizer=0.2, learning_rate=0.1</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>model_6_9_0</t>
-        </is>
-      </c>
-      <c r="C30" t="n">
-        <v>0.9961238078890496</v>
-      </c>
-      <c r="D30" t="n">
-        <v>0.8055564316619641</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0.995206317551416</v>
-      </c>
-      <c r="F30" t="n">
-        <v>0.9992770769941276</v>
-      </c>
-      <c r="G30" t="n">
-        <v>0.9986603574082351</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0.01626754924654961</v>
-      </c>
-      <c r="I30" t="n">
-        <v>1.300245046615601</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0.00620882585644722</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0.004785502795130014</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0.005497162230312824</v>
-      </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>Hidden Size=[30, 21], regularizer=0.5, learning_rate=0.1</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>model_6_9_12</t>
-        </is>
-      </c>
-      <c r="C31" t="n">
-        <v>0.9961238078890496</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0.8055564316619641</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0.995206317551416</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0.9992770769941276</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0.9986603574082351</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0.01626754924654961</v>
-      </c>
-      <c r="I31" t="n">
-        <v>1.300245046615601</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0.00620882585644722</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0.004785502795130014</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0.005497162230312824</v>
-      </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>Hidden Size=[30, 21], regularizer=0.5, learning_rate=0.1</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>model_6_9_23</t>
-        </is>
-      </c>
-      <c r="C32" t="n">
-        <v>0.9961238078890496</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0.8055564316619641</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0.995206317551416</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0.9992770769941276</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0.9986603574082351</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0.01626754924654961</v>
-      </c>
-      <c r="I32" t="n">
-        <v>1.300245046615601</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0.00620882585644722</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0.004785502795130014</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0.005497162230312824</v>
-      </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>Hidden Size=[30, 21], regularizer=0.5, learning_rate=0.1</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>model_6_9_24</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
-        <v>0.9961238078890496</v>
-      </c>
-      <c r="D33" t="n">
-        <v>0.8055564316619641</v>
-      </c>
-      <c r="E33" t="n">
-        <v>0.995206317551416</v>
-      </c>
-      <c r="F33" t="n">
-        <v>0.9992770769941276</v>
-      </c>
-      <c r="G33" t="n">
-        <v>0.9986603574082351</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0.01626754924654961</v>
-      </c>
-      <c r="I33" t="n">
-        <v>1.300245046615601</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0.00620882585644722</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0.004785502795130014</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0.005497162230312824</v>
-      </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>Hidden Size=[30, 21], regularizer=0.5, learning_rate=0.1</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>model_6_9_2</t>
-        </is>
-      </c>
-      <c r="C34" t="n">
-        <v>0.9961238078890496</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0.8055564316619641</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0.995206317551416</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0.9992770769941276</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0.9986603574082351</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0.01626754924654961</v>
-      </c>
-      <c r="I34" t="n">
-        <v>1.300245046615601</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0.00620882585644722</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0.004785502795130014</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0.005497162230312824</v>
-      </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>Hidden Size=[30, 21], regularizer=0.5, learning_rate=0.1</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>model_6_9_3</t>
-        </is>
-      </c>
-      <c r="C35" t="n">
-        <v>0.9961238078890496</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0.8055564316619641</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0.995206317551416</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0.9992770769941276</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0.9986603574082351</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0.01626754924654961</v>
-      </c>
-      <c r="I35" t="n">
-        <v>1.300245046615601</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0.00620882585644722</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0.004785502795130014</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0.005497162230312824</v>
-      </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>Hidden Size=[30, 21], regularizer=0.5, learning_rate=0.1</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>model_6_9_4</t>
-        </is>
-      </c>
-      <c r="C36" t="n">
-        <v>0.9961238078890496</v>
-      </c>
-      <c r="D36" t="n">
-        <v>0.8055564316619641</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0.995206317551416</v>
-      </c>
-      <c r="F36" t="n">
-        <v>0.9992770769941276</v>
-      </c>
-      <c r="G36" t="n">
-        <v>0.9986603574082351</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0.01626754924654961</v>
-      </c>
-      <c r="I36" t="n">
-        <v>1.300245046615601</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0.00620882585644722</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0.004785502795130014</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0.005497162230312824</v>
-      </c>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>Hidden Size=[30, 21], regularizer=0.5, learning_rate=0.1</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>model_6_9_5</t>
-        </is>
-      </c>
-      <c r="C37" t="n">
-        <v>0.9961238078890496</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0.8055564316619641</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0.995206317551416</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0.9992770769941276</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0.9986603574082351</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0.01626754924654961</v>
-      </c>
-      <c r="I37" t="n">
-        <v>1.300245046615601</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0.00620882585644722</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0.004785502795130014</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0.005497162230312824</v>
-      </c>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>Hidden Size=[30, 21], regularizer=0.5, learning_rate=0.1</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>model_6_9_6</t>
-        </is>
-      </c>
-      <c r="C38" t="n">
-        <v>0.9961238078890496</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0.8055564316619641</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0.995206317551416</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0.9992770769941276</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0.9986603574082351</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0.01626754924654961</v>
-      </c>
-      <c r="I38" t="n">
-        <v>1.300245046615601</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0.00620882585644722</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0.004785502795130014</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0.005497162230312824</v>
-      </c>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>Hidden Size=[30, 21], regularizer=0.5, learning_rate=0.1</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>model_6_9_7</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
-        <v>0.9961238078890496</v>
-      </c>
-      <c r="D39" t="n">
-        <v>0.8055564316619641</v>
-      </c>
-      <c r="E39" t="n">
-        <v>0.995206317551416</v>
-      </c>
-      <c r="F39" t="n">
-        <v>0.9992770769941276</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0.9986603574082351</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0.01626754924654961</v>
-      </c>
-      <c r="I39" t="n">
-        <v>1.300245046615601</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0.00620882585644722</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0.004785502795130014</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0.005497162230312824</v>
-      </c>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>Hidden Size=[30, 21], regularizer=0.5, learning_rate=0.1</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>model_6_9_8</t>
-        </is>
-      </c>
-      <c r="C40" t="n">
-        <v>0.9961238078890496</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0.8055564316619641</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0.995206317551416</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0.9992770769941276</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0.9986603574082351</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0.01626754924654961</v>
-      </c>
-      <c r="I40" t="n">
-        <v>1.300245046615601</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0.00620882585644722</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0.004785502795130014</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0.005497162230312824</v>
-      </c>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>Hidden Size=[30, 21], regularizer=0.5, learning_rate=0.1</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>model_6_9_9</t>
-        </is>
-      </c>
-      <c r="C41" t="n">
-        <v>0.9961238078890496</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0.8055564316619641</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0.995206317551416</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0.9992770769941276</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0.9986603574082351</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0.01626754924654961</v>
-      </c>
-      <c r="I41" t="n">
-        <v>1.300245046615601</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0.00620882585644722</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0.004785502795130014</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0.005497162230312824</v>
-      </c>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>Hidden Size=[30, 21], regularizer=0.5, learning_rate=0.1</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>model_6_9_22</t>
-        </is>
-      </c>
-      <c r="C42" t="n">
-        <v>0.9961238078890496</v>
-      </c>
-      <c r="D42" t="n">
-        <v>0.8055564316619641</v>
-      </c>
-      <c r="E42" t="n">
-        <v>0.995206317551416</v>
-      </c>
-      <c r="F42" t="n">
-        <v>0.9992770769941276</v>
-      </c>
-      <c r="G42" t="n">
-        <v>0.9986603574082351</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0.01626754924654961</v>
-      </c>
-      <c r="I42" t="n">
-        <v>1.300245046615601</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0.00620882585644722</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0.004785502795130014</v>
-      </c>
-      <c r="L42" t="n">
-        <v>0.005497162230312824</v>
-      </c>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>Hidden Size=[30, 21], regularizer=0.5, learning_rate=0.1</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>model_6_9_10</t>
-        </is>
-      </c>
-      <c r="C43" t="n">
-        <v>0.9961238078890496</v>
-      </c>
-      <c r="D43" t="n">
-        <v>0.8055564316619641</v>
-      </c>
-      <c r="E43" t="n">
-        <v>0.995206317551416</v>
-      </c>
-      <c r="F43" t="n">
-        <v>0.9992770769941276</v>
-      </c>
-      <c r="G43" t="n">
-        <v>0.9986603574082351</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0.01626754924654961</v>
-      </c>
-      <c r="I43" t="n">
-        <v>1.300245046615601</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0.00620882585644722</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0.004785502795130014</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0.005497162230312824</v>
-      </c>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>Hidden Size=[30, 21], regularizer=0.5, learning_rate=0.1</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>model_6_9_1</t>
-        </is>
-      </c>
-      <c r="C44" t="n">
-        <v>0.9961238078890496</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0.8055564316619641</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0.995206317551416</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0.9992770769941276</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0.9986603574082351</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0.01626754924654961</v>
-      </c>
-      <c r="I44" t="n">
-        <v>1.300245046615601</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0.00620882585644722</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0.004785502795130014</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0.005497162230312824</v>
-      </c>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>Hidden Size=[30, 21], regularizer=0.5, learning_rate=0.1</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>model_6_9_11</t>
-        </is>
-      </c>
-      <c r="C45" t="n">
-        <v>0.9961238078890496</v>
-      </c>
-      <c r="D45" t="n">
-        <v>0.8055564316619641</v>
-      </c>
-      <c r="E45" t="n">
-        <v>0.995206317551416</v>
-      </c>
-      <c r="F45" t="n">
-        <v>0.9992770769941276</v>
-      </c>
-      <c r="G45" t="n">
-        <v>0.9986603574082351</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0.01626754924654961</v>
-      </c>
-      <c r="I45" t="n">
-        <v>1.300245046615601</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0.00620882585644722</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0.004785502795130014</v>
-      </c>
-      <c r="L45" t="n">
-        <v>0.005497162230312824</v>
-      </c>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>Hidden Size=[30, 21], regularizer=0.5, learning_rate=0.1</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>model_6_9_13</t>
-        </is>
-      </c>
-      <c r="C46" t="n">
-        <v>0.9961238078890496</v>
-      </c>
-      <c r="D46" t="n">
-        <v>0.8055564316619641</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0.995206317551416</v>
-      </c>
-      <c r="F46" t="n">
-        <v>0.9992770769941276</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0.9986603574082351</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0.01626754924654961</v>
-      </c>
-      <c r="I46" t="n">
-        <v>1.300245046615601</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0.00620882585644722</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0.004785502795130014</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0.005497162230312824</v>
-      </c>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>Hidden Size=[30, 21], regularizer=0.5, learning_rate=0.1</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>model_6_9_14</t>
-        </is>
-      </c>
-      <c r="C47" t="n">
-        <v>0.9961238078890496</v>
-      </c>
-      <c r="D47" t="n">
-        <v>0.8055564316619641</v>
-      </c>
-      <c r="E47" t="n">
-        <v>0.995206317551416</v>
-      </c>
-      <c r="F47" t="n">
-        <v>0.9992770769941276</v>
-      </c>
-      <c r="G47" t="n">
-        <v>0.9986603574082351</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0.01626754924654961</v>
-      </c>
-      <c r="I47" t="n">
-        <v>1.300245046615601</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0.00620882585644722</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0.004785502795130014</v>
-      </c>
-      <c r="L47" t="n">
-        <v>0.005497162230312824</v>
-      </c>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>Hidden Size=[30, 21], regularizer=0.5, learning_rate=0.1</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>model_6_9_15</t>
-        </is>
-      </c>
-      <c r="C48" t="n">
-        <v>0.9961238078890496</v>
-      </c>
-      <c r="D48" t="n">
-        <v>0.8055564316619641</v>
-      </c>
-      <c r="E48" t="n">
-        <v>0.995206317551416</v>
-      </c>
-      <c r="F48" t="n">
-        <v>0.9992770769941276</v>
-      </c>
-      <c r="G48" t="n">
-        <v>0.9986603574082351</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0.01626754924654961</v>
-      </c>
-      <c r="I48" t="n">
-        <v>1.300245046615601</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0.00620882585644722</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0.004785502795130014</v>
-      </c>
-      <c r="L48" t="n">
-        <v>0.005497162230312824</v>
-      </c>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>Hidden Size=[30, 21], regularizer=0.5, learning_rate=0.1</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>model_6_9_16</t>
-        </is>
-      </c>
-      <c r="C49" t="n">
-        <v>0.9961238078890496</v>
-      </c>
-      <c r="D49" t="n">
-        <v>0.8055564316619641</v>
-      </c>
-      <c r="E49" t="n">
-        <v>0.995206317551416</v>
-      </c>
-      <c r="F49" t="n">
-        <v>0.9992770769941276</v>
-      </c>
-      <c r="G49" t="n">
-        <v>0.9986603574082351</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0.01626754924654961</v>
-      </c>
-      <c r="I49" t="n">
-        <v>1.300245046615601</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0.00620882585644722</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0.004785502795130014</v>
-      </c>
-      <c r="L49" t="n">
-        <v>0.005497162230312824</v>
-      </c>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>Hidden Size=[30, 21], regularizer=0.5, learning_rate=0.1</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>model_6_9_17</t>
-        </is>
-      </c>
-      <c r="C50" t="n">
-        <v>0.9961238078890496</v>
-      </c>
-      <c r="D50" t="n">
-        <v>0.8055564316619641</v>
-      </c>
-      <c r="E50" t="n">
-        <v>0.995206317551416</v>
-      </c>
-      <c r="F50" t="n">
-        <v>0.9992770769941276</v>
-      </c>
-      <c r="G50" t="n">
-        <v>0.9986603574082351</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0.01626754924654961</v>
-      </c>
-      <c r="I50" t="n">
-        <v>1.300245046615601</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0.00620882585644722</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0.004785502795130014</v>
-      </c>
-      <c r="L50" t="n">
-        <v>0.005497162230312824</v>
-      </c>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>Hidden Size=[30, 21], regularizer=0.5, learning_rate=0.1</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>model_6_9_18</t>
-        </is>
-      </c>
-      <c r="C51" t="n">
-        <v>0.9961238078890496</v>
-      </c>
-      <c r="D51" t="n">
-        <v>0.8055564316619641</v>
-      </c>
-      <c r="E51" t="n">
-        <v>0.995206317551416</v>
-      </c>
-      <c r="F51" t="n">
-        <v>0.9992770769941276</v>
-      </c>
-      <c r="G51" t="n">
-        <v>0.9986603574082351</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0.01626754924654961</v>
-      </c>
-      <c r="I51" t="n">
-        <v>1.300245046615601</v>
-      </c>
-      <c r="J51" t="n">
-        <v>0.00620882585644722</v>
-      </c>
-      <c r="K51" t="n">
-        <v>0.004785502795130014</v>
-      </c>
-      <c r="L51" t="n">
-        <v>0.005497162230312824</v>
-      </c>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>Hidden Size=[30, 21], regularizer=0.5, learning_rate=0.1</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>model_6_9_19</t>
-        </is>
-      </c>
-      <c r="C52" t="n">
-        <v>0.9961238078890496</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0.8055564316619641</v>
-      </c>
-      <c r="E52" t="n">
-        <v>0.995206317551416</v>
-      </c>
-      <c r="F52" t="n">
-        <v>0.9992770769941276</v>
-      </c>
-      <c r="G52" t="n">
-        <v>0.9986603574082351</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0.01626754924654961</v>
-      </c>
-      <c r="I52" t="n">
-        <v>1.300245046615601</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0.00620882585644722</v>
-      </c>
-      <c r="K52" t="n">
-        <v>0.004785502795130014</v>
-      </c>
-      <c r="L52" t="n">
-        <v>0.005497162230312824</v>
-      </c>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>Hidden Size=[30, 21], regularizer=0.5, learning_rate=0.1</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>model_6_9_20</t>
-        </is>
-      </c>
-      <c r="C53" t="n">
-        <v>0.9961238078890496</v>
-      </c>
-      <c r="D53" t="n">
-        <v>0.8055564316619641</v>
-      </c>
-      <c r="E53" t="n">
-        <v>0.995206317551416</v>
-      </c>
-      <c r="F53" t="n">
-        <v>0.9992770769941276</v>
-      </c>
-      <c r="G53" t="n">
-        <v>0.9986603574082351</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0.01626754924654961</v>
-      </c>
-      <c r="I53" t="n">
-        <v>1.300245046615601</v>
-      </c>
-      <c r="J53" t="n">
-        <v>0.00620882585644722</v>
-      </c>
-      <c r="K53" t="n">
-        <v>0.004785502795130014</v>
-      </c>
-      <c r="L53" t="n">
-        <v>0.005497162230312824</v>
-      </c>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>Hidden Size=[30, 21], regularizer=0.5, learning_rate=0.1</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>model_6_9_21</t>
-        </is>
-      </c>
-      <c r="C54" t="n">
-        <v>0.9961238078890496</v>
-      </c>
-      <c r="D54" t="n">
-        <v>0.8055564316619641</v>
-      </c>
-      <c r="E54" t="n">
-        <v>0.995206317551416</v>
-      </c>
-      <c r="F54" t="n">
-        <v>0.9992770769941276</v>
-      </c>
-      <c r="G54" t="n">
-        <v>0.9986603574082351</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0.01626754924654961</v>
-      </c>
-      <c r="I54" t="n">
-        <v>1.300245046615601</v>
-      </c>
-      <c r="J54" t="n">
-        <v>0.00620882585644722</v>
-      </c>
-      <c r="K54" t="n">
-        <v>0.004785502795130014</v>
-      </c>
-      <c r="L54" t="n">
-        <v>0.005497162230312824</v>
-      </c>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>Hidden Size=[30, 21], regularizer=0.5, learning_rate=0.1</t>
         </is>
       </c>
     </row>
